--- a/data/2021-11-19 Roder связи.xlsx
+++ b/data/2021-11-19 Roder связи.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="340">
   <si>
     <t xml:space="preserve">Идентификатор операции</t>
   </si>
@@ -316,18 +316,21 @@
     <t xml:space="preserve">R1190, R1100</t>
   </si>
   <si>
+    <t xml:space="preserve">R1820, R1830, R1870, R1280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        R1850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сборка Стойка торцевая средняя (104886)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1820, R1830, R1870</t>
   </si>
   <si>
-    <t xml:space="preserve">        R1850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сборка Стойка торцевая средняя (104886)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">        R1860</t>
   </si>
   <si>
@@ -490,7 +493,7 @@
     <t xml:space="preserve">16.00</t>
   </si>
   <si>
-    <t xml:space="preserve">R1780, R1870</t>
+    <t xml:space="preserve">R1780, R1870, R1840</t>
   </si>
   <si>
     <t xml:space="preserve">R1270</t>
@@ -518,6 +521,9 @@
   </si>
   <si>
     <t xml:space="preserve">Установка Панель алюминиевая ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xx1230</t>
   </si>
   <si>
     <t xml:space="preserve">47.00</t>
@@ -1229,20 +1235,20 @@
   </sheetPr>
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="87.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="73.85"/>
   </cols>
   <sheetData>
@@ -2033,18 +2039,18 @@
         <v>97</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>182249</v>
@@ -2068,24 +2074,24 @@
         <v>97</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>102031</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>88</v>
@@ -2103,24 +2109,24 @@
         <v>80</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>131723</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>88</v>
@@ -2138,18 +2144,18 @@
         <v>80</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -2158,27 +2164,27 @@
         <v>44545</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>111488</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>88</v>
@@ -2193,27 +2199,27 @@
         <v>44552</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>111727</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>88</v>
@@ -2228,27 +2234,27 @@
         <v>44552</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>165658</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>88</v>
@@ -2266,24 +2272,24 @@
         <v>100</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>100295</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>88</v>
@@ -2301,15 +2307,15 @@
         <v>100</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>12</v>
@@ -2323,16 +2329,16 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>88</v>
@@ -2350,24 +2356,24 @@
         <v>638</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>88</v>
@@ -2382,24 +2388,24 @@
         <v>44540</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>88</v>
@@ -2414,18 +2420,18 @@
         <v>44547</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>3</v>
@@ -2439,16 +2445,16 @@
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>88</v>
@@ -2469,15 +2475,15 @@
         <v>33</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>11</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>166069</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>88</v>
@@ -2521,27 +2527,27 @@
         <v>100</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>166069</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>88</v>
@@ -2556,27 +2562,27 @@
         <v>44554</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>118060</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>88</v>
@@ -2594,24 +2600,27 @@
         <v>45</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>88</v>
@@ -2629,18 +2638,18 @@
         <v>242</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>4</v>
@@ -2654,19 +2663,19 @@
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>165160</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>88</v>
@@ -2684,24 +2693,24 @@
         <v>10</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>88</v>
@@ -2719,15 +2728,15 @@
         <v>40</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>17</v>
@@ -2744,16 +2753,16 @@
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>1</v>
@@ -2768,21 +2777,21 @@
         <v>132</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>88</v>
@@ -2800,21 +2809,21 @@
         <v>2</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>88</v>
@@ -2832,24 +2841,24 @@
         <v>4</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>3</v>
@@ -2864,21 +2873,21 @@
         <v>100</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>88</v>
@@ -2896,21 +2905,21 @@
         <v>219</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>88</v>
@@ -2928,21 +2937,21 @@
         <v>129</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>88</v>
@@ -2960,21 +2969,21 @@
         <v>151</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>88</v>
@@ -2992,15 +3001,15 @@
         <v>10</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>17</v>
@@ -3017,7 +3026,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>17</v>
@@ -3034,16 +3043,16 @@
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>6</v>
@@ -3058,24 +3067,24 @@
         <v>100</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>7</v>
@@ -3090,15 +3099,15 @@
         <v>100</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>17</v>
@@ -3115,16 +3124,16 @@
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>6</v>
@@ -3139,24 +3148,24 @@
         <v>100</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="D70" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>7</v>
@@ -3171,15 +3180,15 @@
         <v>100</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>17</v>
@@ -3196,13 +3205,13 @@
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>88</v>
@@ -3220,24 +3229,24 @@
         <v>27</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="D73" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>6</v>
@@ -3252,24 +3261,24 @@
         <v>100</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>7</v>
@@ -3284,15 +3293,15 @@
         <v>100</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>17</v>
@@ -3309,7 +3318,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>17</v>
@@ -3326,16 +3335,16 @@
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>3</v>
@@ -3350,21 +3359,21 @@
         <v>100</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>88</v>
@@ -3382,21 +3391,21 @@
         <v>361</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>88</v>
@@ -3414,21 +3423,21 @@
         <v>46</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>88</v>
@@ -3446,24 +3455,24 @@
         <v>6</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>4</v>
@@ -3478,21 +3487,21 @@
         <v>1</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>88</v>
@@ -3510,24 +3519,24 @@
         <v>4</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>3</v>
@@ -3542,15 +3551,15 @@
         <v>100</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>17</v>
@@ -3567,13 +3576,13 @@
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>88</v>
@@ -3591,24 +3600,24 @@
         <v>10</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>4</v>
@@ -3623,24 +3632,24 @@
         <v>100</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>7</v>
@@ -3655,24 +3664,24 @@
         <v>100</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>2</v>
@@ -3687,21 +3696,21 @@
         <v>2</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>88</v>
@@ -3719,21 +3728,21 @@
         <v>1</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>88</v>
@@ -3751,15 +3760,15 @@
         <v>13</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>17</v>
@@ -3776,16 +3785,16 @@
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>3</v>
@@ -3800,24 +3809,24 @@
         <v>100</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>3</v>
@@ -3832,24 +3841,24 @@
         <v>100</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>3</v>
@@ -3864,15 +3873,15 @@
         <v>100</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>17</v>
@@ -3889,16 +3898,16 @@
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>3</v>
@@ -3913,24 +3922,24 @@
         <v>100</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>3</v>
@@ -3945,15 +3954,15 @@
         <v>100</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>17</v>
@@ -3970,16 +3979,16 @@
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>2</v>
@@ -3994,24 +4003,24 @@
         <v>100</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>1</v>
@@ -4026,24 +4035,24 @@
         <v>100</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>3</v>
@@ -4058,15 +4067,15 @@
         <v>100</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>17</v>
@@ -4083,16 +4092,16 @@
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>3</v>
@@ -4107,24 +4116,24 @@
         <v>100</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>2</v>
@@ -4139,24 +4148,24 @@
         <v>100</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>1</v>
@@ -4171,24 +4180,24 @@
         <v>100</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
@@ -4203,15 +4212,15 @@
         <v>100</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>17</v>
@@ -4228,7 +4237,7 @@
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>17</v>
@@ -4245,16 +4254,16 @@
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>2</v>
@@ -4277,16 +4286,16 @@
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>320</v>
-      </c>
       <c r="D110" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>2</v>
@@ -4309,16 +4318,16 @@
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>2</v>
@@ -4341,16 +4350,16 @@
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>2</v>
@@ -4373,16 +4382,16 @@
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>2</v>
@@ -4405,16 +4414,16 @@
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>2</v>
@@ -4437,16 +4446,16 @@
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>1</v>
@@ -4469,16 +4478,16 @@
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>1</v>
@@ -4493,10 +4502,10 @@
         <v>100</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/data/2021-11-19 Roder связи.xlsx
+++ b/data/2021-11-19 Roder связи.xlsx
@@ -1077,24 +1077,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1131,28 +1119,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1165,66 +1145,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDEEBF7"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1235,3276 +1155,3280 @@
   </sheetPr>
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="87.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="73.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="73.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="8.48"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>44469</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>44578</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>44469</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="3" t="n">
         <v>44578</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>44469</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3" t="n">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5" t="n">
+      <c r="I5" s="2"/>
+      <c r="J5" s="3" t="n">
         <v>44496</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="3" t="n">
         <v>44524</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3" t="n">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5" t="n">
+      <c r="I7" s="2"/>
+      <c r="J7" s="3" t="n">
         <v>44524</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3" t="n">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5" t="n">
+      <c r="I8" s="2"/>
+      <c r="J8" s="3" t="n">
         <v>44545</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3" t="n">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5" t="n">
+      <c r="I9" s="2"/>
+      <c r="J9" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3" t="n">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5" t="n">
+      <c r="I10" s="2"/>
+      <c r="J10" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3" t="n">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5" t="n">
+      <c r="I11" s="2"/>
+      <c r="J11" s="3" t="n">
         <v>44578</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <v>44469</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="3" t="n">
         <v>44524</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3" t="n">
         <v>44469</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="3" t="n">
         <v>44496</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3" t="n">
         <v>44469</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="3" t="n">
         <v>44496</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="3" t="n">
         <v>44524</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="3" t="n">
         <v>44524</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="3" t="n">
         <v>44503</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="3" t="n">
         <v>44503</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="3" t="n">
         <v>44503</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="N19" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="3" t="n">
         <v>44503</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="3" t="n">
         <v>44503</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="N21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="3" t="n">
         <v>44503</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="3" t="n">
         <v>44503</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="N23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="3" t="n">
         <v>44503</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="3" t="n">
         <v>44497</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="3" t="n">
         <v>44503</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="3" t="n">
         <v>44525</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="3" t="n">
         <v>44525</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="3" t="n">
         <v>44568</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="3" t="n">
         <v>44525</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="3" t="n">
         <v>44531</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>101316</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="3" t="n">
         <v>44525</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="3" t="n">
         <v>44531</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="N29" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="3" t="n">
         <v>44532</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="3" t="n">
         <v>44561</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>118192</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="3" t="n">
         <v>44532</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="3" t="n">
         <v>44538</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="M31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="0" t="s">
+      <c r="N31" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>104886</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="3" t="n">
         <v>44532</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="3" t="n">
         <v>44538</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="N32" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>182249</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="3" t="n">
         <v>44532</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="3" t="n">
         <v>44538</v>
       </c>
-      <c r="M33" s="0" t="s">
+      <c r="M33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="0" t="s">
+      <c r="N33" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>102031</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="3" t="n">
         <v>44539</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="3" t="n">
         <v>44545</v>
       </c>
-      <c r="M34" s="0" t="s">
+      <c r="M34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N34" s="0" t="s">
+      <c r="N34" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>131723</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="3" t="n">
         <v>44539</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="3" t="n">
         <v>44545</v>
       </c>
-      <c r="M35" s="0" t="s">
+      <c r="M35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="N35" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="3" t="n">
         <v>44545</v>
       </c>
-      <c r="M36" s="0" t="s">
+      <c r="M36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N36" s="0" t="s">
+      <c r="N36" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>111488</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="3" t="n">
         <v>44546</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="3" t="n">
         <v>44552</v>
       </c>
-      <c r="M37" s="0" t="s">
+      <c r="M37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N37" s="0" t="s">
+      <c r="N37" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>111727</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="3" t="n">
         <v>44546</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="3" t="n">
         <v>44552</v>
       </c>
-      <c r="M38" s="0" t="s">
+      <c r="M38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N38" s="0" t="s">
+      <c r="N38" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>165658</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="3" t="n">
         <v>44553</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="3" t="n">
         <v>44561</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M39" s="0" t="s">
+      <c r="M39" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>100295</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="3" t="n">
         <v>44553</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="J40" s="3" t="n">
         <v>44561</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="M40" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="3" t="n">
         <v>44532</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J41" s="3" t="n">
         <v>44547</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="3" t="n">
         <v>44532</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="J42" s="3" t="n">
         <v>44533</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="1" t="n">
         <v>638</v>
       </c>
-      <c r="M42" s="0" t="s">
+      <c r="M42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="0" t="s">
+      <c r="N42" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="3" t="n">
         <v>44536</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="J43" s="3" t="n">
         <v>44540</v>
       </c>
-      <c r="M43" s="0" t="s">
+      <c r="M43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N43" s="0" t="s">
+      <c r="N43" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="3" t="n">
         <v>44543</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="J44" s="3" t="n">
         <v>44547</v>
       </c>
-      <c r="M44" s="0" t="s">
+      <c r="M44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N44" s="0" t="s">
+      <c r="N44" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="3" t="n">
         <v>44546</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="J45" s="3" t="n">
         <v>44550</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="3" t="n">
         <v>44546</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="J46" s="3" t="n">
         <v>44550</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M46" s="0" t="s">
+      <c r="M46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N46" s="0" t="s">
+      <c r="N46" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="3" t="n">
         <v>44550</v>
       </c>
-      <c r="J47" s="2" t="n">
+      <c r="J47" s="3" t="n">
         <v>44564</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>166069</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="3" t="n">
         <v>44550</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="J48" s="3" t="n">
         <v>44551</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M48" s="0" t="s">
+      <c r="M48" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N48" s="0" t="s">
+      <c r="N48" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>166069</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="3" t="n">
         <v>44550</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="J49" s="3" t="n">
         <v>44554</v>
       </c>
-      <c r="M49" s="0" t="s">
+      <c r="M49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N49" s="0" t="s">
+      <c r="N49" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>118060</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="3" t="n">
         <v>44557</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="J50" s="3" t="n">
         <v>44558</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="K50" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="M50" s="0" t="s">
+      <c r="M50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N50" s="0" t="s">
+      <c r="N50" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="3" t="n">
         <v>44559</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="J51" s="3" t="n">
         <v>44564</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="K51" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="M51" s="0" t="s">
+      <c r="M51" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N51" s="0" t="s">
+      <c r="N51" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="J52" s="3" t="n">
         <v>44568</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>165160</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="J53" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M53" s="0" t="s">
+      <c r="M53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N53" s="0" t="s">
+      <c r="N53" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="J54" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="M54" s="0" t="s">
+      <c r="M54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N54" s="0" t="s">
+      <c r="N54" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J55" s="2" t="n">
+      <c r="J55" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J56" s="2" t="n">
+      <c r="J56" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="M56" s="0" t="s">
+      <c r="M56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N56" s="0" t="s">
+      <c r="N56" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="J57" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M57" s="0" t="s">
+      <c r="M57" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N57" s="0" t="s">
+      <c r="N57" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J58" s="2" t="n">
+      <c r="J58" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M58" s="0" t="s">
+      <c r="M58" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N58" s="0" t="s">
+      <c r="N58" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="J59" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M59" s="0" t="s">
+      <c r="M59" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N59" s="0" t="s">
+      <c r="N59" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="M60" s="0" t="s">
+      <c r="M60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N60" s="0" t="s">
+      <c r="N60" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="J61" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="K61" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="M61" s="0" t="s">
+      <c r="M61" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N61" s="0" t="s">
+      <c r="N61" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="J62" s="2" t="n">
+      <c r="J62" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="M62" s="0" t="s">
+      <c r="M62" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N62" s="0" t="s">
+      <c r="N62" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M63" s="0" t="s">
+      <c r="M63" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N63" s="0" t="s">
+      <c r="N63" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J64" s="2" t="n">
+      <c r="J64" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="I65" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J65" s="2" t="n">
+      <c r="J65" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J66" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K66" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M66" s="0" t="s">
+      <c r="M66" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N66" s="0" t="s">
+      <c r="N66" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J67" s="2" t="n">
+      <c r="J67" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M67" s="0" t="s">
+      <c r="M67" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N67" s="0" t="s">
+      <c r="N67" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I68" s="2" t="n">
+      <c r="I68" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J68" s="2" t="n">
+      <c r="J68" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J69" s="2" t="n">
+      <c r="J69" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="K69" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M69" s="0" t="s">
+      <c r="M69" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N69" s="0" t="s">
+      <c r="N69" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J70" s="2" t="n">
+      <c r="J70" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="K70" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M70" s="0" t="s">
+      <c r="M70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N70" s="0" t="s">
+      <c r="N70" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J71" s="2" t="n">
+      <c r="J71" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I72" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J72" s="2" t="n">
+      <c r="J72" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="K72" s="0" t="n">
+      <c r="K72" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="M72" s="0" t="s">
+      <c r="M72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N72" s="0" t="s">
+      <c r="N72" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="I73" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J73" s="2" t="n">
+      <c r="J73" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="K73" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M73" s="0" t="s">
+      <c r="M73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N73" s="0" t="s">
+      <c r="N73" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J74" s="2" t="n">
+      <c r="J74" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M74" s="0" t="s">
+      <c r="M74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N74" s="0" t="s">
+      <c r="N74" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="I75" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J75" s="2" t="n">
+      <c r="J75" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="I76" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J76" s="2" t="n">
+      <c r="J76" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I77" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J77" s="2" t="n">
+      <c r="J77" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K77" s="0" t="n">
+      <c r="K77" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M77" s="0" t="s">
+      <c r="M77" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N77" s="0" t="s">
+      <c r="N77" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="H78" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I78" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J78" s="2" t="n">
+      <c r="J78" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="K78" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="M78" s="0" t="s">
+      <c r="M78" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N78" s="0" t="s">
+      <c r="N78" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="G79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J79" s="2" t="n">
+      <c r="J79" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="K79" s="0" t="n">
+      <c r="K79" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="M79" s="0" t="s">
+      <c r="M79" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N79" s="0" t="s">
+      <c r="N79" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="I80" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J80" s="2" t="n">
+      <c r="J80" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="K80" s="0" t="n">
+      <c r="K80" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M80" s="0" t="s">
+      <c r="M80" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N80" s="0" t="s">
+      <c r="N80" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J81" s="2" t="n">
+      <c r="J81" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="K81" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M81" s="0" t="s">
+      <c r="M81" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N81" s="0" t="s">
+      <c r="N81" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I82" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J82" s="2" t="n">
+      <c r="J82" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="K82" s="0" t="n">
+      <c r="K82" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M82" s="0" t="s">
+      <c r="M82" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N82" s="0" t="s">
+      <c r="N82" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J83" s="2" t="n">
+      <c r="J83" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="K83" s="0" t="n">
+      <c r="K83" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M83" s="0" t="s">
+      <c r="M83" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="N83" s="0" t="s">
+      <c r="N83" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I84" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J84" s="2" t="n">
+      <c r="J84" s="3" t="n">
         <v>44573</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="I85" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J85" s="2" t="n">
+      <c r="J85" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K85" s="0" t="n">
+      <c r="K85" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M85" s="0" t="s">
+      <c r="M85" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N85" s="0" t="s">
+      <c r="N85" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I86" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J86" s="2" t="n">
+      <c r="J86" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="K86" s="0" t="n">
+      <c r="K86" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M86" s="0" t="s">
+      <c r="M86" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N86" s="0" t="s">
+      <c r="N86" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="I87" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J87" s="2" t="n">
+      <c r="J87" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="K87" s="0" t="n">
+      <c r="K87" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M87" s="0" t="s">
+      <c r="M87" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N87" s="0" t="s">
+      <c r="N87" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="I88" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J88" s="2" t="n">
+      <c r="J88" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="K88" s="0" t="n">
+      <c r="K88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M88" s="0" t="s">
+      <c r="M88" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N88" s="0" t="s">
+      <c r="N88" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I89" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J89" s="2" t="n">
+      <c r="J89" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="K89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M89" s="0" t="s">
+      <c r="M89" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N89" s="0" t="s">
+      <c r="N89" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="I90" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J90" s="2" t="n">
+      <c r="J90" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="K90" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M90" s="0" t="s">
+      <c r="M90" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N90" s="0" t="s">
+      <c r="N90" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I91" s="2" t="n">
+      <c r="I91" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J91" s="2" t="n">
+      <c r="J91" s="3" t="n">
         <v>44572</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I92" s="2" t="n">
+      <c r="I92" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J92" s="2" t="n">
+      <c r="J92" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K92" s="0" t="n">
+      <c r="K92" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M92" s="0" t="s">
+      <c r="M92" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N92" s="0" t="s">
+      <c r="N92" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I93" s="2" t="n">
+      <c r="I93" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J93" s="2" t="n">
+      <c r="J93" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K93" s="0" t="n">
+      <c r="K93" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M93" s="0" t="s">
+      <c r="M93" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N93" s="0" t="s">
+      <c r="N93" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H94" s="0" t="n">
+      <c r="H94" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I94" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J94" s="2" t="n">
+      <c r="J94" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="K94" s="0" t="n">
+      <c r="K94" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M94" s="0" t="s">
+      <c r="M94" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="N94" s="0" t="s">
+      <c r="N94" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="I95" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J95" s="2" t="n">
+      <c r="J95" s="3" t="n">
         <v>44567</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I96" s="2" t="n">
+      <c r="I96" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J96" s="2" t="n">
+      <c r="J96" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="K96" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M96" s="0" t="s">
+      <c r="M96" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N96" s="0" t="s">
+      <c r="N96" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I97" s="2" t="n">
+      <c r="I97" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J97" s="2" t="n">
+      <c r="J97" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K97" s="0" t="n">
+      <c r="K97" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M97" s="0" t="s">
+      <c r="M97" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N97" s="0" t="s">
+      <c r="N97" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I98" s="2" t="n">
+      <c r="I98" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J98" s="2" t="n">
+      <c r="J98" s="3" t="n">
         <v>44572</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I99" s="2" t="n">
+      <c r="I99" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J99" s="2" t="n">
+      <c r="J99" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="K99" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M99" s="0" t="s">
+      <c r="M99" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N99" s="0" t="s">
+      <c r="N99" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="I100" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="J100" s="2" t="n">
+      <c r="J100" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K100" s="0" t="n">
+      <c r="K100" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M100" s="0" t="s">
+      <c r="M100" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N100" s="0" t="s">
+      <c r="N100" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="G101" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I101" s="2" t="n">
+      <c r="I101" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J101" s="2" t="n">
+      <c r="J101" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="K101" s="0" t="n">
+      <c r="K101" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M101" s="0" t="s">
+      <c r="M101" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="N101" s="0" t="s">
+      <c r="N101" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I102" s="2" t="n">
+      <c r="I102" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J102" s="2" t="n">
+      <c r="J102" s="3" t="n">
         <v>44567</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="G103" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="I103" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J103" s="2" t="n">
+      <c r="J103" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K103" s="0" t="n">
+      <c r="K103" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M103" s="0" t="s">
+      <c r="M103" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="N103" s="0" t="s">
+      <c r="N103" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G104" s="0" t="s">
+      <c r="G104" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="I104" s="3" t="n">
         <v>44565</v>
       </c>
-      <c r="J104" s="2" t="n">
+      <c r="J104" s="3" t="n">
         <v>44566</v>
       </c>
-      <c r="K104" s="0" t="n">
+      <c r="K104" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M104" s="0" t="s">
+      <c r="M104" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="N104" s="0" t="s">
+      <c r="N104" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="I105" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="J105" s="2" t="n">
+      <c r="J105" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K105" s="0" t="n">
+      <c r="K105" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M105" s="0" t="s">
+      <c r="M105" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="N105" s="0" t="s">
+      <c r="N105" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G106" s="0" t="s">
+      <c r="G106" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I106" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="J106" s="2" t="n">
+      <c r="J106" s="3" t="n">
         <v>44567</v>
       </c>
-      <c r="K106" s="0" t="n">
+      <c r="K106" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M106" s="0" t="s">
+      <c r="M106" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N106" s="0" t="s">
+      <c r="N106" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H107" s="0" t="n">
+      <c r="H107" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="I107" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J107" s="2" t="n">
+      <c r="J107" s="3" t="n">
         <v>44578</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H108" s="0" t="n">
+      <c r="H108" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I108" s="2" t="n">
+      <c r="I108" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J108" s="2" t="n">
+      <c r="J108" s="3" t="n">
         <v>44578</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H109" s="0" t="n">
+      <c r="H109" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I109" s="2" t="n">
+      <c r="I109" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J109" s="2" t="n">
+      <c r="J109" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="K109" s="0" t="n">
+      <c r="K109" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M109" s="0" t="s">
+      <c r="M109" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N109" s="0" t="s">
+      <c r="N109" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H110" s="0" t="n">
+      <c r="H110" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I110" s="2" t="n">
+      <c r="I110" s="3" t="n">
         <v>44568</v>
       </c>
-      <c r="J110" s="2" t="n">
+      <c r="J110" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="K110" s="0" t="n">
+      <c r="K110" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M110" s="0" t="s">
+      <c r="M110" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N110" s="0" t="s">
+      <c r="N110" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H111" s="0" t="n">
+      <c r="H111" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I111" s="2" t="n">
+      <c r="I111" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="J111" s="2" t="n">
+      <c r="J111" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="K111" s="0" t="n">
+      <c r="K111" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M111" s="0" t="s">
+      <c r="M111" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N111" s="0" t="s">
+      <c r="N111" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H112" s="0" t="n">
+      <c r="H112" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I112" s="2" t="n">
+      <c r="I112" s="3" t="n">
         <v>44573</v>
       </c>
-      <c r="J112" s="2" t="n">
+      <c r="J112" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="K112" s="0" t="n">
+      <c r="K112" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M112" s="0" t="s">
+      <c r="M112" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N112" s="0" t="s">
+      <c r="N112" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G113" s="0" t="s">
+      <c r="G113" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H113" s="0" t="n">
+      <c r="H113" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I113" s="2" t="n">
+      <c r="I113" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="J113" s="2" t="n">
+      <c r="J113" s="3" t="n">
         <v>44575</v>
       </c>
-      <c r="K113" s="0" t="n">
+      <c r="K113" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M113" s="0" t="s">
+      <c r="M113" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N113" s="0" t="s">
+      <c r="N113" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H114" s="0" t="n">
+      <c r="H114" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I114" s="2" t="n">
+      <c r="I114" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="J114" s="2" t="n">
+      <c r="J114" s="3" t="n">
         <v>44575</v>
       </c>
-      <c r="K114" s="0" t="n">
+      <c r="K114" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M114" s="0" t="s">
+      <c r="M114" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N114" s="0" t="s">
+      <c r="N114" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="G115" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H115" s="0" t="n">
+      <c r="H115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I115" s="2" t="n">
+      <c r="I115" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="J115" s="2" t="n">
+      <c r="J115" s="3" t="n">
         <v>44574</v>
       </c>
-      <c r="K115" s="0" t="n">
+      <c r="K115" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M115" s="0" t="s">
+      <c r="M115" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N115" s="0" t="s">
+      <c r="N115" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H116" s="0" t="n">
+      <c r="H116" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="I116" s="3" t="n">
         <v>44578</v>
       </c>
-      <c r="J116" s="2" t="n">
+      <c r="J116" s="3" t="n">
         <v>44578</v>
       </c>
-      <c r="K116" s="0" t="n">
+      <c r="K116" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M116" s="0" t="s">
+      <c r="M116" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N116" s="0" t="s">
+      <c r="N116" s="1" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4517,254 +4441,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100CE6AFE74FDD415468BC9C30152D840F6" ma:contentTypeVersion="13" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="3aff26cacd26e777a7c9e11a88147115">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42664ea3-8066-40f9-a3a7-1ee510d0e58e" xmlns:ns3="401ce9f9-7438-4061-9620-45eeac52959f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="26a7652d10a6617a2141ce34bf6d1c49" ns2:_="" ns3:_="">
-    <xsd:import namespace="42664ea3-8066-40f9-a3a7-1ee510d0e58e"/>
-    <xsd:import namespace="401ce9f9-7438-4061-9620-45eeac52959f"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="42664ea3-8066-40f9-a3a7-1ee510d0e58e" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="401ce9f9-7438-4061-9620-45eeac52959f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Общий доступ с использованием" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Совместно с подробностями" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Тип контента"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Название"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6AC60AB-E0F4-4ABC-BE7A-DA18EEDA2B55}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14581951-92EE-42F6-B913-F1D0D79ADB2C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB3852D-7194-415A-A457-71EA10EC7024}"/>
 </file>